--- a/medicine/Handicap/Yes,_We_Fuck!/Yes,_We_Fuck!.xlsx
+++ b/medicine/Handicap/Yes,_We_Fuck!/Yes,_We_Fuck!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes, We Fuck! (litt., « Oui, on baise ! ») est un documentaire espagnol réalisé par Antonio Centeno et Raúl de la Morena et sorti en 2015[1]. Le titre est un clin d'œil au fameux slogan « Yes We Can » de la campagne présidentielle de Barack Obama de 2008[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, We Fuck! (litt., « Oui, on baise ! ») est un documentaire espagnol réalisé par Antonio Centeno et Raúl de la Morena et sorti en 2015. Le titre est un clin d'œil au fameux slogan « Yes We Can » de la campagne présidentielle de Barack Obama de 2008. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes, We Fuck! présente la sexualité de plusieurs personnes handicapées (le terme employé est personnes dotées de « diversité fonctionnelle », pour mettre en avant des modes de fonctionnement corporel différents plutôt que le handicap). À travers six récits, différentes thématiques sont traitées, notamment l'expérience de sa propre sexualité, la vie en couple, la prostitution, ou encore l'assistance sexuelle[3],[4].
-L'usage d'images sexuelles explicites cherche à rompre avec le stéréotype qui infantilise les personnes handicapées, en montrant que leurs corps sont désirants et désirables, et peuvent créer de nouveaux imaginaires politiques capables de redéfinir des concepts, de la masculinité[5] à la démocratie[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yes, We Fuck! présente la sexualité de plusieurs personnes handicapées (le terme employé est personnes dotées de « diversité fonctionnelle », pour mettre en avant des modes de fonctionnement corporel différents plutôt que le handicap). À travers six récits, différentes thématiques sont traitées, notamment l'expérience de sa propre sexualité, la vie en couple, la prostitution, ou encore l'assistance sexuelle,.
+L'usage d'images sexuelles explicites cherche à rompre avec le stéréotype qui infantilise les personnes handicapées, en montrant que leurs corps sont désirants et désirables, et peuvent créer de nouveaux imaginaires politiques capables de redéfinir des concepts, de la masculinité à la démocratie,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Yes, We Fuck! (litt., « Oui, on baise ! »)
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
